--- a/sheet/ItemCardData.xlsx
+++ b/sheet/ItemCardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\datasheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DF4D9D-46BB-4C1A-8712-FE56C8B90778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324775BE-C66C-4051-83B4-4440A3975FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="145">
   <si>
     <t>蔬菜罐头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,6 +609,22 @@
   </si>
   <si>
     <t>选手牌1张怪物牌弃置，将房间区所有含有那张牌标签的怪物牌送墓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房间区和手牌各1张怪物牌，从主牌堆选1张点数与这两张牌的合计点数相同、且标签与这两张牌均没有交集的怪物牌，加入手牌或放到房间区任意列最前方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将房间区所有“杂鱼”牌送墓。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -951,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1361,338 +1377,330 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="370.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="str" cm="1">
         <f t="array" ref="F18">_xlfn.SWITCH(B18, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
         <v>Scroll</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="str" cm="1">
         <f t="array" ref="F19">_xlfn.SWITCH(B19, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
         <v>Scroll</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="370.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F20" t="str" cm="1">
         <f t="array" ref="F20">_xlfn.SWITCH(B20, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
         <v>Scroll</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F21" t="str" cm="1">
         <f t="array" ref="F21">_xlfn.SWITCH(B21, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
         <v>Scroll</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F22" t="str" cm="1">
         <f t="array" ref="F22">_xlfn.SWITCH(B22, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
         <v>Scroll</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="str" cm="1">
         <f t="array" ref="F23">_xlfn.SWITCH(B23, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
         <v>Scroll</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F24" t="str" cm="1">
         <f t="array" ref="F24">_xlfn.SWITCH(B24, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
         <v>Scroll</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F25" t="str" cm="1">
+        <f t="array" ref="F25">_xlfn.SWITCH(B25, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
+        <v>Scroll</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F26" t="str" cm="1">
         <f t="array" ref="F26">_xlfn.SWITCH(B26, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
         <v>Scroll</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="270.75" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" t="str" cm="1">
-        <f t="array" ref="F27">_xlfn.SWITCH(B27, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
-        <v>Scroll</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F28" t="str" cm="1">
         <f t="array" ref="F28">_xlfn.SWITCH(B28, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
-        <v/>
+        <v>Scroll</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="299.25" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F29" t="str" cm="1">
         <f t="array" ref="F29">_xlfn.SWITCH(B29, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
-        <v>Ammo</v>
+        <v>Scroll</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F30" t="str" cm="1">
         <f t="array" ref="F30">_xlfn.SWITCH(B30, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
-        <v>Ammo</v>
+        <v/>
       </c>
       <c r="G30" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="313.5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F31" t="str" cm="1">
         <f t="array" ref="F31">_xlfn.SWITCH(B31, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
         <v>Ammo</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
@@ -1701,40 +1709,88 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F32" t="str" cm="1">
         <f t="array" ref="F32">_xlfn.SWITCH(B32, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
         <v>Ammo</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="327.75" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F33" t="str" cm="1">
         <f t="array" ref="F33">_xlfn.SWITCH(B33, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
         <v>Ammo</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" t="str" cm="1">
+        <f t="array" ref="F34">_xlfn.SWITCH(B34, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
+        <v>Ammo</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" t="str" cm="1">
+        <f t="array" ref="F35">_xlfn.SWITCH(B35, "药水", "Potion", "食物", "Food", "弹药", "Ammo", "卷轴", "Scroll", "")</f>
+        <v>Ammo</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>85</v>
       </c>
     </row>

--- a/sheet/ItemCardData.xlsx
+++ b/sheet/ItemCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A8CC3D-A09E-4D6D-A9AB-E7DED5E1DB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C4698B-8495-4B55-8CDE-836D3002F726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6285" yWindow="4140" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="164">
   <si>
     <t>蔬菜罐头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,10 +181,6 @@
     <t>Can be used when Player wins in a battle round with more total rank: Cost 1 scroll Then add a card of your side to your hand instead of discarding it. This effect can be used multiple times for every battle round.</t>
   </si>
   <si>
-    <t>灭绝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Genocide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,10 +189,6 @@
 Can be used before making actions: Cost X scroll. Then select { monster } cards with a total rank of X from Exploration Zone and send them to Graveyard.</t>
   </si>
   <si>
-    <t>点金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Midas touch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,19 +197,11 @@
 Can be used before making actions: Cost 1 scroll. Then select a { Monster } card with a rank no more than three from your hand. Send that card to Graveyard and get X unity of gold. X is the rank of that card.</t>
   </si>
   <si>
-    <t>变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Polymorph</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Can be used before making actions: Cost 1 scroll. Then redraw a { monster } card in Exploration Zone.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>援军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -234,18 +218,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解除陷阱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Can be used before making actions: Cost 1 scroll. Then send a { Trap } card in Exploration Zone to Graveyard.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>祝福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bless</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,18 +229,10 @@
     <t>Can be used before a battle round: Cost 1 scroll. Increase the rank of a card of your side by one.</t>
   </si>
   <si>
-    <t>诅咒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Curse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>传送他人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Teleport others</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,10 +240,6 @@
     <t>Can be used before making actions: Cost 1 scroll. Then shuffle a { Monster } card in Exploration Zone to Main Deck.</t>
   </si>
   <si>
-    <t>长距离传送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Teleport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,10 +298,6 @@
   </si>
   <si>
     <t>Can be used before making actions: Cost 1 ammo. Then select two cards from your hand or Exploration Zone and swap them.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -393,14 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lich Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预见针剂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,18 +494,6 @@
   </si>
   <si>
     <t>选手牌1张怪物牌弃置，将房间区所有含有那张牌标签的怪物牌送墓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>融合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选房间区和手牌各1张怪物牌，从主牌堆选1张点数与这两张牌的合计点数相同、且标签与这两张牌均没有交集的怪物牌，加入手牌或放到房间区任意列最前方。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱散</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -686,6 +626,62 @@
   </si>
   <si>
     <t>Oil lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房间区和手牌各1张怪物牌，从主牌堆选1张点数与这两张牌的合计点数相同的怪物牌，加入手牌或放到房间区任意列最前方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融合卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭绝卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点金卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>援军卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除陷阱卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝福卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送他人卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结界卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬币枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1030,73 +1026,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="171" x14ac:dyDescent="0.2">
@@ -1107,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>1</v>
@@ -1124,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1141,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -1158,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -1175,7 +1169,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -1192,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
@@ -1209,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -1226,7 +1220,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
@@ -1243,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>25</v>
@@ -1254,13 +1248,13 @@
     </row>
     <row r="14" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -1277,7 +1271,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -1288,13 +1282,13 @@
     </row>
     <row r="16" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>32</v>
@@ -1311,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>35</v>
@@ -1320,444 +1314,444 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="370.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="B28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="228" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="342" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="228" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/ItemCardData.xlsx
+++ b/sheet/ItemCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C4698B-8495-4B55-8CDE-836D3002F726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE9262C-B6B2-4AF4-86E2-55559D7F4E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6285" yWindow="4140" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1082,7 +1082,9 @@
       <c r="A4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>103</v>
       </c>

--- a/sheet/ItemCardData.xlsx
+++ b/sheet/ItemCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE9262C-B6B2-4AF4-86E2-55559D7F4E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A127770F-BB33-4ED1-BF68-DDA83D6959B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="4140" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,10 +465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将手牌或房间区最前方的1张怪物牌送墓，然后获得1金币。那张怪物牌的点数每比2大1点，玩家额外获得1金币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选房间区1张陷阱牌加入手牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,10 +486,6 @@
   </si>
   <si>
     <t>交锋时可以发动：敌人侧所有怪物牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选手牌1张怪物牌弃置，将房间区所有含有那张牌标签的怪物牌送墓。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -682,6 +674,14 @@
   </si>
   <si>
     <t>硬币枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将手牌或房间区最前方的1张怪物牌送墓，然后获得X金币，X为送墓的怪物牌的点数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣言1个标签，弃置手牌中所有含有那个标签的怪物牌，然后将房间区所有含有那个标签的怪物牌送墓。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="2" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1318,39 +1318,39 @@
     </row>
     <row r="18" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="370.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>39</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="22" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="23" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
@@ -1425,13 +1425,13 @@
     </row>
     <row r="25" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>75</v>
@@ -1442,13 +1442,13 @@
     </row>
     <row r="26" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>47</v>
@@ -1459,13 +1459,13 @@
     </row>
     <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>49</v>
@@ -1474,13 +1474,13 @@
     </row>
     <row r="28" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>50</v>
@@ -1491,13 +1491,13 @@
     </row>
     <row r="29" spans="1:5" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>52</v>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>60</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="35" spans="1:5" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -1610,24 +1610,24 @@
     </row>
     <row r="36" spans="1:5" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1636,64 +1636,64 @@
         <v>85</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="342" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -1702,58 +1702,58 @@
         <v>94</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="228" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/ItemCardData.xlsx
+++ b/sheet/ItemCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A127770F-BB33-4ED1-BF68-DDA83D6959B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C189AFBB-4615-4679-B766-30BD8253CB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
   <si>
     <t>蔬菜罐头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,19 +82,6 @@
   <si>
     <t>Can only be used once per Long Rest. &lt;br&gt;
 Can be used before making actions: Cost 1 food. Then add the topmost card of Discard Pile to your hand.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫罐头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Canned cat food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can only be used once per Long Rest. &lt;br&gt;
-Can be used before making actions: Cost 1 food. Then add the topmost card in your freecell to your hand.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -377,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选空档区1张牌加入手牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回复1生命。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,18 +581,6 @@
   <si>
     <t>Can only be used once per Long Rest. &lt;br&gt;
 Can be used when a { Trap } card's effect activates: Negate that effect.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异次元口袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空档区有空位时可以发动：将1张手牌放入空档区，然后从主牌堆抽2张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD pocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1024,75 +995,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="171" x14ac:dyDescent="0.2">
@@ -1103,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>1</v>
@@ -1120,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1137,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -1154,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -1163,15 +1134,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -1180,7 +1151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="370.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1188,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
@@ -1197,15 +1168,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="370.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -1214,7 +1185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1222,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
@@ -1231,32 +1202,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1">
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="384.75" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -1265,32 +1236,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="384.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="370.5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>92</v>
-      </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>32</v>
@@ -1299,205 +1270,205 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="370.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="370.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="370.5" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1">
         <v>3</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="24" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="C24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="1">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="1">
+    <row r="28" spans="1:5" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="3" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>159</v>
-      </c>
       <c r="B29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>52</v>
@@ -1506,32 +1477,32 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="1">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="3" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>97</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>57</v>
@@ -1540,15 +1511,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>59</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>60</v>
@@ -1557,15 +1528,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="313.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="228" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>63</v>
@@ -1574,38 +1545,38 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="228" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="327.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="299.25" x14ac:dyDescent="0.2">
@@ -1613,93 +1584,93 @@
         <v>116</v>
       </c>
       <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37">
         <v>3</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="C37" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B37">
+      <c r="D37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38">
         <v>2</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="114" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="D38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="342" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="327.75" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="342" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>128</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>133</v>
@@ -1708,12 +1679,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="270.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="228" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>135</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>136</v>
@@ -1723,37 +1694,6 @@
       </c>
       <c r="E42" s="3" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="228" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>139</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/ItemCardData.xlsx
+++ b/sheet/ItemCardData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C189AFBB-4615-4679-B766-30BD8253CB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC3A606-5012-465B-A404-61B6BD5B6395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="160">
   <si>
     <t>蔬菜罐头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +150,6 @@
 Can be used before making actions: Cost 1 potion. Then take X cards from Artifact Deck and get the first &lt;scroll&gt; or &lt;potion&gt; card of them, if there is any.</t>
   </si>
   <si>
-    <t>Identification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Can be used when using an [Artifact] card: Cost 1 scroll. Then change the "three" in the effect of that card to "six".</t>
   </si>
   <si>
@@ -192,19 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大房间卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Great Room Scroll</t>
-  </si>
-  <si>
-    <t>Can only be used once per Long Rest. &lt;br&gt;
-Can be used when resetting Exploration Zone: Cost 1 scroll. Increase Area by 1 until the resetting is done. &lt;br&gt;
-Lasting: As long as this card is tapped. Player can take one more { Event } card from Event Deck in post battle phase. He can also select an additional { Event } card in that case.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Can be used before making actions: Cost 1 scroll. Then send a { Trap } card in Exploration Zone to Graveyard.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,10 +304,6 @@
   </si>
   <si>
     <t>Can be used when a [Skeleton] card calls: Negate that effect.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻路石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -352,10 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复位每个属性的升级牌各1张。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将弃牌堆顶1张牌洗回主牌堆。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,22 +339,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回复1生命。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将1张横置的升级牌复位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择1个牌堆，观看其顶端5张牌，以任意顺序将其中任意张牌放在顶部，其余牌按任意顺序放在底部。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从升级牌堆翻开3张牌，选其中1张牌替换升级牌区的1张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>混沌石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,11 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对房间区每个非空列，从主牌堆发1张牌在其最前方。&lt;br&gt;
-持续 本牌横置时，翻开遭遇牌时可额外翻开2张，选择遭遇牌时可额外选择1张。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将房间区最前方的所有牌送墓。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,42 +379,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择遭遇牌后可以发动：将1张未选中的遭遇牌放回遭遇牌堆顶。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开战前可以发动：按从后向前的顺序，对每一个玩家侧没有牌、而敌人侧有牌的单元格，从主牌堆发1张牌。然后立即开战。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家交锋压制时可以发动：选玩家侧1张牌送墓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选手牌或房间区牌的1张牌，从主牌堆检索1张同名牌加入手牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选房间区最前方1张怪物牌，其点数减2。</t>
-  </si>
-  <si>
-    <t>从遗物牌堆翻开3张牌，选其中1张牌替换遗物区1张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家交锋压制时可以发动：选玩家侧1张牌加入手牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选房间区1张陷阱牌加入手牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使房间区1张牌点数加1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使房间区1张牌点数减1。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -653,6 +576,94 @@
   </si>
   <si>
     <t>宣言1个标签，弃置手牌中所有含有那个标签的怪物牌，然后将房间区所有含有那个标签的怪物牌送墓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复2生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房间区最前方1张怪物牌，其点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房间区1张怪物牌，其点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crossbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战前可以发动：选战场1张牌点数加1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战前可以发动：选战场1张牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从主牌堆抽牌，在备战区的每一个空的槽位放置1张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位每种属性的升级牌各1张。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家控制的牌被弃置时可以发动：将那张牌送墓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选场上的1张牌，从主牌堆将1张其同名牌加入手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级牌离场时可以发动：可以不将其横置便放回升级牌区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱蘑菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房间区1张怪物牌移动到备战区的对位，或选备战区1张怪物牌移动到房间区的对位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从升级牌堆翻开3张牌，选其中1张替换升级牌区的1张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chaos orb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用遗物牌堆顶的1张牌替换遗物区的1张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家控制的牌被弃置时可以发动：将其加入手牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,705 +1006,747 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="114" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="114" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="D3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="171" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="228" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="228" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="370.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="370.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="384.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="384.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="370.5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="370.5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="E23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="228" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="370.5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="E38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="342" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="370.5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="1">
+    </row>
+    <row r="41" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="228" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42">
         <v>1</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="1">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="313.5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="228" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="327.75" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>154</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="114" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="F42" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="327.75" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="342" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="228" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/ItemCardData.xlsx
+++ b/sheet/ItemCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC3A606-5012-465B-A404-61B6BD5B6395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC32821-EC09-4FC1-A1CD-09DC10C132B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="156">
   <si>
     <t>蔬菜罐头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,18 +217,6 @@
     <t>Can be used before making actions: Cost 1 scroll. Then have a Long Rest and reset Exploration Zone. Player can decide the order of these two moves.</t>
   </si>
   <si>
-    <t>炸药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dynamite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can be used before making actions: Cost X potions and 1 ammo. Then select a column in Exploration Zone. Send the topmost card of that column to Graveyard. X is the rank of that card. Additionally, if the topmost cards of the adjacent columns have a rank no higher than X, send them to Graveyard as well.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bow</t>
   </si>
   <si>
@@ -244,18 +232,6 @@
   </si>
   <si>
     <t>Can be used in a battle round: Cost 1 ammo. Then decrease the rank of all cards in that row by one.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can be used before making actions: Cost X ammo. Then select a column in Exploration Zone. Send all cards in that column whose rank is no higher than X to Graveyard.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -339,34 +315,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择1个牌堆，观看其顶端5张牌，以任意顺序将其中任意张牌放在顶部，其余牌按任意顺序放在底部。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>混沌石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重抽手牌或房间区任意1张怪物牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将主牌堆第1张怪物牌加入手牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将房间区最前方的所有牌送墓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选房间区一列，其中所有牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从房间区和手牌中选合计两张牌，交换它们的位置。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,23 +335,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选房间区1张陷阱牌加入手牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选房间区1张怪物牌洗回主牌堆。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>重抽房间区所有牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋时可以发动：敌人侧所有怪物牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将房间区所有“杂鱼”牌送墓。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -430,15 +374,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选1张其他道具牌完全充能，该效果每充1能，玩家受到1伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>油灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选弃牌堆1张牌放在房间区任意非空列任意位置。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -479,10 +415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选手牌中1张怪物牌送墓，然后获得遭遇牌堆第1张战利品牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Meat cleaver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,78 +447,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选房间区和手牌各1张怪物牌，从主牌堆选1张点数与这两张牌的合计点数相同的怪物牌，加入手牌或放到房间区任意列最前方。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>融合卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱散卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灭绝卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点金卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变化卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>援军卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解除陷阱卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝福卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诅咒卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送他人卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结界卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>硬币枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将手牌或房间区最前方的1张怪物牌送墓，然后获得X金币，X为送墓的怪物牌的点数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宣言1个标签，弃置手牌中所有含有那个标签的怪物牌，然后将房间区所有含有那个标签的怪物牌送墓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复2生命。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选房间区最前方1张怪物牌，其点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -599,14 +463,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开战前可以发动：选战场1张牌点数加1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开战前可以发动：选战场1张牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tags</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -647,10 +503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选房间区1张怪物牌移动到备战区的对位，或选备战区1张怪物牌移动到房间区的对位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从升级牌堆翻开3张牌，选其中1张替换升级牌区的1张牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -664,6 +516,137 @@
   </si>
   <si>
     <t>玩家控制的牌被弃置时可以发动：将其加入手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看主牌堆顶端5张牌，以任意顺序将其中任意张牌放在顶部，其余牌按任意顺序放在底部。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷轴</t>
+  </si>
+  <si>
+    <t>观看遗物牌堆顶端3张牌，以任意顺序将其中任意张牌放在顶部，其余牌按任意顺序放在底部。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点金术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>援军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送他人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房间区一行或一列，使其中的所有怪物牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战时可以发动：所有敌对怪物牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房间区1张怪物牌移动到备战区的对位槽位中，或选备战区1张怪物牌移动到房间区的对位槽位中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复3生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房间区和手牌各1张怪物牌，从主牌堆选1张点数与这两张牌的合计点数相同的怪物牌，加入手牌或放到房间区任意槽位中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭房间区所有“杂鱼”牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣言1个标签，消灭手牌和场上所有含有那个标签的怪物牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭手牌或场上的1张怪物牌，然后获得X金币，X为被消灭的怪物牌的点数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重抽手牌或场上任意1张怪物牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选场上1张陷阱牌加入手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战前可以发动：选1张参与战斗的牌点数加1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战前可以发动：选1张参与战斗的牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家受到1伤害，然后获得1IP。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将弃牌堆第1张牌放在房间区任意槽位中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭由玩家控制的1张怪物牌，然后获得遭遇牌堆第1张战利品牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1006,521 +989,560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="171" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="228" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="299.25" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="370.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="370.5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="384.75" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="370.5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="384.75" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="370.5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="370.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="370.5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
       </c>
       <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>139</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="3" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>140</v>
+      <c r="B29" t="s">
+        <v>139</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>141</v>
@@ -1528,225 +1550,216 @@
       <c r="E29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="228" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
       <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33">
         <v>2</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="342" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="313.5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="F36" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37">
         <v>2</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="228" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F37" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="3" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="114" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>102</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="342" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="228" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="228" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/ItemCardData.xlsx
+++ b/sheet/ItemCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC32821-EC09-4FC1-A1CD-09DC10C132B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030B0792-E086-47BC-8C17-E55FD991B5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="163">
   <si>
     <t>蔬菜罐头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,15 +323,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从房间区和手牌中选合计两张牌，交换它们的位置。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选房间区1张牌，消耗X金币，使其点数减X。那张牌因点数降至0以下而送墓时，玩家获得1金币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开战前可以发动：无效战场中所有怪物牌的呼唤效果。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -614,14 +606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宣言1个标签，消灭手牌和场上所有含有那个标签的怪物牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消灭手牌或场上的1张怪物牌，然后获得X金币，X为被消灭的怪物牌的点数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重抽手牌或场上任意1张怪物牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -647,6 +631,50 @@
   </si>
   <si>
     <t>消灭由玩家控制的1张怪物牌，然后获得遭遇牌堆第1张战利品牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陀螺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去最后1张手牌时可以发动：抽1张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战前可以发动：场上的牌不能移动，直至战斗结束。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选场上两张遭遇牌以外的牌，交换它们的位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunnel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场上的牌在区域边界移动时可以发动：可以将牌移动到对位，视为移动了1格。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕梦网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重整时可以发动：玩家可以重抽场上和手牌中任意张牌。该效果每次重整只能发动一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭场上1张怪物牌，然后获得X金币，X为被消灭的怪物牌的点数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣言1个种族，消灭手牌和场上所有那个种族的怪物牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1002,7 +1030,7 @@
         <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -1025,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1045,13 +1073,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -1065,7 +1093,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1085,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1102,16 +1130,16 @@
     </row>
     <row r="6" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
@@ -1121,13 +1149,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -1141,13 +1169,13 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -1161,13 +1189,13 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -1181,13 +1209,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -1201,13 +1229,13 @@
         <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1221,13 +1249,13 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>27</v>
@@ -1238,16 +1266,16 @@
     </row>
     <row r="13" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
@@ -1257,13 +1285,13 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
@@ -1274,16 +1302,16 @@
     </row>
     <row r="15" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
@@ -1292,48 +1320,48 @@
     </row>
     <row r="16" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="370.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>33</v>
@@ -1344,16 +1372,16 @@
     </row>
     <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>35</v>
@@ -1364,16 +1392,16 @@
     </row>
     <row r="20" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>37</v>
@@ -1384,10 +1412,10 @@
     </row>
     <row r="21" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -1400,16 +1428,16 @@
     </row>
     <row r="22" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>62</v>
@@ -1420,16 +1448,16 @@
     </row>
     <row r="23" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>40</v>
@@ -1440,16 +1468,16 @@
     </row>
     <row r="24" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>42</v>
@@ -1458,16 +1486,16 @@
     </row>
     <row r="25" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>43</v>
@@ -1478,16 +1506,16 @@
     </row>
     <row r="26" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>45</v>
@@ -1496,270 +1524,312 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="228" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:6" ht="228" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>52</v>
       </c>
-      <c r="B30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>105</v>
-      </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="2" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="342" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="228" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="342" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="228" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="1">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/ItemCardData.xlsx
+++ b/sheet/ItemCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030B0792-E086-47BC-8C17-E55FD991B5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958671C2-FCB4-46E2-B8A9-3A27BA19E93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1815" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1492,7 +1492,7 @@
         <v>122</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>75</v>

--- a/sheet/ItemCardData.xlsx
+++ b/sheet/ItemCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958671C2-FCB4-46E2-B8A9-3A27BA19E93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCD110A-9CA8-472F-846A-450FAB3F0276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1815" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="165">
   <si>
     <t>蔬菜罐头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -675,6 +675,14 @@
   </si>
   <si>
     <t>宣言1个种族，消灭手牌和场上所有那个种族的怪物牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间跳跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌通过移动后可以发动：将那张牌复位。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1017,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1370,65 +1378,65 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>127</v>
-      </c>
-      <c r="B21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>132</v>
       </c>
       <c r="B22" t="s">
         <v>122</v>
@@ -1437,38 +1445,34 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" t="s">
         <v>122</v>
@@ -1477,36 +1481,36 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
         <v>122</v>
       </c>
       <c r="C25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
         <v>122</v>
@@ -1515,74 +1519,74 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>156</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>104</v>
-      </c>
-      <c r="B28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>140</v>
       </c>
       <c r="B29" t="s">
         <v>137</v>
       </c>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>137</v>
@@ -1591,38 +1595,38 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="228" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
         <v>137</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="228" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>137</v>
@@ -1631,204 +1635,224 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>77</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>3</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="1">
         <v>1</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>81</v>
       </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>84</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>0</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>85</v>
       </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="342" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:6" ht="342" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>87</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>1</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>94</v>
       </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="228" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:6" ht="228" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>97</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>1</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C43" s="1">
         <v>3</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44" s="1">
         <v>1</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>152</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>1</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>153</v>
       </c>
     </row>

--- a/sheet/ItemCardData.xlsx
+++ b/sheet/ItemCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCD110A-9CA8-472F-846A-450FAB3F0276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1150330-19AB-46EE-8C68-D536F83D148E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="166">
   <si>
     <t>蔬菜罐头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,19 +311,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将弃牌堆顶1张牌加入手牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>混沌石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>将主牌堆第1张怪物牌加入手牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选房间区1张牌，消耗X金币，使其点数减X。那张牌因点数降至0以下而送墓时，玩家获得1金币。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -683,6 +675,18 @@
   </si>
   <si>
     <t>牌通过移动后可以发动：将那张牌复位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选场上1张牌，消耗X金币，使其点数减X。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横置本牌，然后将弃牌堆顶1张牌洗回主牌堆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横置本牌，然后将弃牌堆顶1张牌加入手牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1027,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1038,7 +1042,7 @@
         <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -1061,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1081,13 +1085,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -1101,13 +1105,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -1121,13 +1125,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -1138,16 +1142,16 @@
     </row>
     <row r="6" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
@@ -1157,13 +1161,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -1177,13 +1181,13 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -1197,13 +1201,13 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -1217,13 +1221,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -1237,13 +1241,13 @@
         <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1257,13 +1261,13 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>27</v>
@@ -1274,16 +1278,16 @@
     </row>
     <row r="13" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
@@ -1293,13 +1297,13 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
@@ -1310,16 +1314,16 @@
     </row>
     <row r="15" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
@@ -1328,48 +1332,48 @@
     </row>
     <row r="16" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="370.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>33</v>
@@ -1380,32 +1384,32 @@
     </row>
     <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>35</v>
@@ -1416,16 +1420,16 @@
     </row>
     <row r="21" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>37</v>
@@ -1436,32 +1440,32 @@
     </row>
     <row r="22" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>62</v>
@@ -1472,16 +1476,16 @@
     </row>
     <row r="24" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>40</v>
@@ -1492,16 +1496,16 @@
     </row>
     <row r="25" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>42</v>
@@ -1510,16 +1514,16 @@
     </row>
     <row r="26" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>43</v>
@@ -1530,16 +1534,16 @@
     </row>
     <row r="27" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>45</v>
@@ -1550,34 +1554,34 @@
     </row>
     <row r="28" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>47</v>
@@ -1586,19 +1590,19 @@
     </row>
     <row r="30" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>48</v>
@@ -1609,13 +1613,13 @@
         <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>50</v>
@@ -1629,13 +1633,13 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>53</v>
@@ -1646,16 +1650,16 @@
     </row>
     <row r="33" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>55</v>
@@ -1666,37 +1670,37 @@
     </row>
     <row r="34" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1705,110 +1709,110 @@
         <v>70</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="342" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="228" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
@@ -1819,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>65</v>
@@ -1830,16 +1834,16 @@
     </row>
     <row r="44" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>29</v>
@@ -1847,13 +1851,13 @@
     </row>
     <row r="45" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/ItemCardData.xlsx
+++ b/sheet/ItemCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1150330-19AB-46EE-8C68-D536F83D148E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220D0D63-4D7C-42A0-A9E3-7710E8F760CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1636,7 +1636,7 @@
         <v>135</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>153</v>

--- a/sheet/ItemCardData.xlsx
+++ b/sheet/ItemCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220D0D63-4D7C-42A0-A9E3-7710E8F760CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3321813-12EC-4462-A629-D88ED579AB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="152">
   <si>
     <t>蔬菜罐头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,19 +49,11 @@
     <t>Can be used before making actions: Cost 1 food. Then flip one of your used attribute token.</t>
   </si>
   <si>
-    <t>肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Meat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Can be used before making actions: Cost 2 food. For each token type, flip one of your used attribute tokens if there is any.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭团</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -153,17 +145,6 @@
     <t>Can be used when using an [Artifact] card: Cost 1 scroll. Then change the "three" in the effect of that card to "six".</t>
   </si>
   <si>
-    <t>The合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The contract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can be used when Player wins in a battle round with more total rank: Cost 1 scroll Then add a card of your side to your hand instead of discarding it. This effect can be used multiple times for every battle round.</t>
-  </si>
-  <si>
     <t>Genocide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Can be used when a [Skeleton] card calls: Negate that effect.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>酒杯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复位1张升级牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将弃牌堆顶1张牌洗回主牌堆。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,14 +297,6 @@
   </si>
   <si>
     <t>重抽房间区所有牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>律师徽章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻转1个牌堆。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -463,10 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复位每种属性的升级牌各1张。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>药剂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,10 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>升级牌离场时可以发动：可以不将其横置便放回升级牌区。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>混乱蘑菇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,14 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩家控制的牌被弃置时可以发动：将其加入手牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观看主牌堆顶端5张牌，以任意顺序将其中任意张牌放在顶部，其余牌按任意顺序放在底部。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卷轴</t>
   </si>
   <si>
@@ -514,18 +463,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>融合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点金术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>援军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,10 +479,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鉴定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -590,10 +527,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选房间区和手牌各1张怪物牌，从主牌堆选1张点数与这两张牌的合计点数相同的怪物牌，加入手牌或放到房间区任意槽位中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消灭房间区所有“杂鱼”牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,26 +567,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开战前可以发动：场上的牌不能移动，直至战斗结束。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选场上两张遭遇牌以外的牌，交换它们的位置。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>穿墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tunnel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场上的牌在区域边界移动时可以发动：可以将牌移动到对位，视为移动了1格。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>捕梦网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,23 +587,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间跳跃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牌通过移动后可以发动：将那张牌复位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选场上1张牌，消耗X金币，使其点数减X。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>横置本牌，然后将弃牌堆顶1张牌洗回主牌堆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>横置本牌，然后将弃牌堆顶1张牌加入手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗1时间，复位所有升级牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间倒流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横置本牌，然后将弃牌堆顶2张牌洗回主牌堆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凹面镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位1张“力量”、“敏捷”或“体质”升级牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位1张“智力”或“感知”升级牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看任意牌堆顶端5张牌，以任意顺序将其中任意张牌放在顶部，其余牌按任意顺序放在底部。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转1个牌堆，直到下次重整后为止。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1029,35 +974,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="171" x14ac:dyDescent="0.2">
@@ -1065,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -1082,152 +1027,152 @@
     </row>
     <row r="3" spans="1:7" ht="228" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3">
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="228" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="171" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>114</v>
-      </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="370.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="370.5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -1236,180 +1181,186 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="384.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="384.75" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="370.5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="370.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="370.5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>35</v>
@@ -1418,446 +1369,352 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="228" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="1">
+        <v>146</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>2</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="228" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3</v>
+        <v>73</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="1">
+        <v>74</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="342" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34">
         <v>1</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="228" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="342" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39">
+        <v>64</v>
+      </c>
+      <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="228" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
